--- a/data_year/zb/卫生/医疗卫生机构.xlsx
+++ b/data_year/zb/卫生/医疗卫生机构.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1138 +518,692 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11386</v>
+        <v>11835</v>
       </c>
       <c r="C2" t="n">
-        <v>1543</v>
+        <v>3956</v>
       </c>
       <c r="D2" t="n">
-        <v>1839</v>
+        <v>1274</v>
       </c>
       <c r="E2" t="n">
-        <v>2453</v>
+        <v>2778</v>
       </c>
       <c r="F2" t="n">
-        <v>49229</v>
+        <v>37836</v>
       </c>
       <c r="G2" t="n">
-        <v>1034229</v>
+        <v>936927</v>
       </c>
       <c r="H2" t="n">
-        <v>16318</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>20918</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2992</v>
+      </c>
       <c r="J2" t="n">
-        <v>1000169</v>
+        <v>901709</v>
       </c>
       <c r="K2" t="n">
-        <v>3163</v>
+        <v>3025</v>
       </c>
       <c r="L2" t="n">
-        <v>709458</v>
+        <v>648424</v>
       </c>
       <c r="M2" t="n">
-        <v>3741</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>3513</v>
+      </c>
+      <c r="N2" t="n">
+        <v>32739</v>
+      </c>
       <c r="O2" t="n">
-        <v>11872</v>
+        <v>13681</v>
       </c>
       <c r="P2" t="n">
-        <v>548</v>
+        <v>929</v>
       </c>
       <c r="Q2" t="n">
-        <v>240934</v>
+        <v>181781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11471</v>
+        <v>11926</v>
       </c>
       <c r="C3" t="n">
-        <v>1576</v>
+        <v>4283</v>
       </c>
       <c r="D3" t="n">
-        <v>1783</v>
+        <v>1294</v>
       </c>
       <c r="E3" t="n">
-        <v>2478</v>
+        <v>2831</v>
       </c>
       <c r="F3" t="n">
-        <v>48090</v>
+        <v>37295</v>
       </c>
       <c r="G3" t="n">
-        <v>1029314</v>
+        <v>954389</v>
       </c>
       <c r="H3" t="n">
-        <v>16197</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>21979</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3022</v>
+      </c>
       <c r="J3" t="n">
-        <v>995670</v>
+        <v>918003</v>
       </c>
       <c r="K3" t="n">
-        <v>3132</v>
+        <v>3036</v>
       </c>
       <c r="L3" t="n">
-        <v>698966</v>
+        <v>662894</v>
       </c>
       <c r="M3" t="n">
-        <v>3813</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>3484</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32860</v>
+      </c>
       <c r="O3" t="n">
-        <v>11834</v>
+        <v>14328</v>
       </c>
       <c r="P3" t="n">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="Q3" t="n">
-        <v>248061</v>
+        <v>184287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10787</v>
+        <v>12083</v>
       </c>
       <c r="C4" t="n">
-        <v>2237</v>
+        <v>4665</v>
       </c>
       <c r="D4" t="n">
-        <v>1839</v>
+        <v>1289</v>
       </c>
       <c r="E4" t="n">
-        <v>2492</v>
+        <v>2889</v>
       </c>
       <c r="F4" t="n">
-        <v>44992</v>
+        <v>37097</v>
       </c>
       <c r="G4" t="n">
-        <v>1005004</v>
+        <v>950297</v>
       </c>
       <c r="H4" t="n">
-        <v>17844</v>
+        <v>23170</v>
       </c>
       <c r="I4" t="n">
-        <v>571</v>
+        <v>3088</v>
       </c>
       <c r="J4" t="n">
-        <v>973098</v>
+        <v>912620</v>
       </c>
       <c r="K4" t="n">
-        <v>3067</v>
+        <v>3044</v>
       </c>
       <c r="L4" t="n">
-        <v>698966</v>
+        <v>653419</v>
       </c>
       <c r="M4" t="n">
-        <v>3580</v>
+        <v>3490</v>
       </c>
       <c r="N4" t="n">
-        <v>8211</v>
+        <v>33562</v>
       </c>
       <c r="O4" t="n">
-        <v>12716</v>
+        <v>15021</v>
       </c>
       <c r="P4" t="n">
-        <v>1022</v>
+        <v>610</v>
       </c>
       <c r="Q4" t="n">
-        <v>219907</v>
+        <v>187932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10792</v>
+        <v>31155</v>
       </c>
       <c r="C5" t="n">
-        <v>2271</v>
+        <v>5127</v>
       </c>
       <c r="D5" t="n">
-        <v>1749</v>
+        <v>1271</v>
       </c>
       <c r="E5" t="n">
-        <v>2518</v>
+        <v>3015</v>
       </c>
       <c r="F5" t="n">
-        <v>44279</v>
+        <v>37015</v>
       </c>
       <c r="G5" t="n">
-        <v>806243</v>
+        <v>974398</v>
       </c>
       <c r="H5" t="n">
-        <v>17764</v>
+        <v>24709</v>
       </c>
       <c r="I5" t="n">
-        <v>838</v>
+        <v>2967</v>
       </c>
       <c r="J5" t="n">
-        <v>774693</v>
+        <v>915368</v>
       </c>
       <c r="K5" t="n">
-        <v>3033</v>
+        <v>3144</v>
       </c>
       <c r="L5" t="n">
-        <v>514920</v>
+        <v>648619</v>
       </c>
       <c r="M5" t="n">
-        <v>3584</v>
+        <v>3516</v>
       </c>
       <c r="N5" t="n">
-        <v>10101</v>
+        <v>33965</v>
       </c>
       <c r="O5" t="n">
-        <v>12599</v>
+        <v>15887</v>
       </c>
       <c r="P5" t="n">
-        <v>925</v>
+        <v>593</v>
       </c>
       <c r="Q5" t="n">
-        <v>204468</v>
+        <v>195176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10878</v>
+        <v>35029</v>
       </c>
       <c r="C6" t="n">
-        <v>2492</v>
+        <v>5478</v>
       </c>
       <c r="D6" t="n">
-        <v>1583</v>
+        <v>1242</v>
       </c>
       <c r="E6" t="n">
-        <v>2611</v>
+        <v>3115</v>
       </c>
       <c r="F6" t="n">
-        <v>41626</v>
+        <v>36902</v>
       </c>
       <c r="G6" t="n">
-        <v>849140</v>
+        <v>981432</v>
       </c>
       <c r="H6" t="n">
-        <v>18393</v>
+        <v>25860</v>
       </c>
       <c r="I6" t="n">
-        <v>1284</v>
+        <v>2975</v>
       </c>
       <c r="J6" t="n">
-        <v>817018</v>
+        <v>917335</v>
       </c>
       <c r="K6" t="n">
-        <v>2998</v>
+        <v>3098</v>
       </c>
       <c r="L6" t="n">
-        <v>551600</v>
+        <v>645470</v>
       </c>
       <c r="M6" t="n">
-        <v>3588</v>
+        <v>3490</v>
       </c>
       <c r="N6" t="n">
-        <v>14153</v>
+        <v>34238</v>
       </c>
       <c r="O6" t="n">
-        <v>12900</v>
+        <v>16524</v>
       </c>
       <c r="P6" t="n">
-        <v>845</v>
+        <v>595</v>
       </c>
       <c r="Q6" t="n">
-        <v>208794</v>
+        <v>200130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11177</v>
+        <v>31927</v>
       </c>
       <c r="C7" t="n">
-        <v>2682</v>
+        <v>6023</v>
       </c>
       <c r="D7" t="n">
-        <v>1502</v>
+        <v>1234</v>
       </c>
       <c r="E7" t="n">
-        <v>2620</v>
+        <v>3267</v>
       </c>
       <c r="F7" t="n">
-        <v>40907</v>
+        <v>36817</v>
       </c>
       <c r="G7" t="n">
-        <v>882206</v>
+        <v>983528</v>
       </c>
       <c r="H7" t="n">
-        <v>18703</v>
+        <v>27587</v>
       </c>
       <c r="I7" t="n">
-        <v>1702</v>
+        <v>2986</v>
       </c>
       <c r="J7" t="n">
-        <v>849488</v>
+        <v>920770</v>
       </c>
       <c r="K7" t="n">
-        <v>3021</v>
+        <v>3078</v>
       </c>
       <c r="L7" t="n">
-        <v>583209</v>
+        <v>640536</v>
       </c>
       <c r="M7" t="n">
-        <v>3585</v>
+        <v>3478</v>
       </c>
       <c r="N7" t="n">
-        <v>17128</v>
+        <v>34321</v>
       </c>
       <c r="O7" t="n">
-        <v>12982</v>
+        <v>17430</v>
       </c>
       <c r="P7" t="n">
-        <v>787</v>
+        <v>524</v>
       </c>
       <c r="Q7" t="n">
-        <v>207457</v>
+        <v>208572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11269</v>
+        <v>24866</v>
       </c>
       <c r="C8" t="n">
-        <v>3022</v>
+        <v>6642</v>
       </c>
       <c r="D8" t="n">
-        <v>1402</v>
+        <v>1213</v>
       </c>
       <c r="E8" t="n">
-        <v>2665</v>
+        <v>3462</v>
       </c>
       <c r="F8" t="n">
-        <v>39975</v>
+        <v>36795</v>
       </c>
       <c r="G8" t="n">
-        <v>918097</v>
+        <v>983394</v>
       </c>
       <c r="H8" t="n">
-        <v>19246</v>
+        <v>29140</v>
       </c>
       <c r="I8" t="n">
-        <v>2097</v>
+        <v>2986</v>
       </c>
       <c r="J8" t="n">
-        <v>884818</v>
+        <v>926518</v>
       </c>
       <c r="K8" t="n">
-        <v>3003</v>
+        <v>3063</v>
       </c>
       <c r="L8" t="n">
-        <v>609128</v>
+        <v>638763</v>
       </c>
       <c r="M8" t="n">
-        <v>3548</v>
+        <v>3481</v>
       </c>
       <c r="N8" t="n">
-        <v>22656</v>
+        <v>34327</v>
       </c>
       <c r="O8" t="n">
-        <v>13120</v>
-      </c>
-      <c r="P8" t="n">
-        <v>816</v>
-      </c>
+        <v>18020</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>212243</v>
+        <v>216187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11528</v>
+        <v>19896</v>
       </c>
       <c r="C9" t="n">
-        <v>3282</v>
+        <v>7220</v>
       </c>
       <c r="D9" t="n">
-        <v>1365</v>
+        <v>1200</v>
       </c>
       <c r="E9" t="n">
-        <v>2720</v>
+        <v>3695</v>
       </c>
       <c r="F9" t="n">
-        <v>39876</v>
+        <v>36551</v>
       </c>
       <c r="G9" t="n">
-        <v>912263</v>
+        <v>986649</v>
       </c>
       <c r="H9" t="n">
-        <v>19852</v>
+        <v>31056</v>
       </c>
       <c r="I9" t="n">
-        <v>2553</v>
+        <v>2992</v>
       </c>
       <c r="J9" t="n">
-        <v>878686</v>
+        <v>933024</v>
       </c>
       <c r="K9" t="n">
-        <v>3051</v>
+        <v>3077</v>
       </c>
       <c r="L9" t="n">
-        <v>613855</v>
+        <v>632057</v>
       </c>
       <c r="M9" t="n">
-        <v>3585</v>
+        <v>3456</v>
       </c>
       <c r="N9" t="n">
-        <v>27069</v>
+        <v>34652</v>
       </c>
       <c r="O9" t="n">
-        <v>13372</v>
-      </c>
-      <c r="P9" t="n">
-        <v>803</v>
-      </c>
+        <v>18921</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>197083</v>
+        <v>229221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11485</v>
+        <v>18033</v>
       </c>
       <c r="C10" t="n">
-        <v>3437</v>
+        <v>7900</v>
       </c>
       <c r="D10" t="n">
-        <v>1310</v>
+        <v>1161</v>
       </c>
       <c r="E10" t="n">
-        <v>2688</v>
+        <v>3977</v>
       </c>
       <c r="F10" t="n">
-        <v>39080</v>
+        <v>36461</v>
       </c>
       <c r="G10" t="n">
-        <v>891480</v>
+        <v>997433</v>
       </c>
       <c r="H10" t="n">
-        <v>19712</v>
+        <v>33009</v>
       </c>
       <c r="I10" t="n">
-        <v>2675</v>
+        <v>2949</v>
       </c>
       <c r="J10" t="n">
-        <v>858015</v>
+        <v>943639</v>
       </c>
       <c r="K10" t="n">
-        <v>3011</v>
+        <v>3080</v>
       </c>
       <c r="L10" t="n">
-        <v>613143</v>
+        <v>622001</v>
       </c>
       <c r="M10" t="n">
-        <v>3534</v>
+        <v>3443</v>
       </c>
       <c r="N10" t="n">
-        <v>24260</v>
+        <v>34997</v>
       </c>
       <c r="O10" t="n">
-        <v>13119</v>
-      </c>
-      <c r="P10" t="n">
-        <v>780</v>
-      </c>
+        <v>19693</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>180752</v>
+        <v>249654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11665</v>
+        <v>15958</v>
       </c>
       <c r="C11" t="n">
-        <v>3716</v>
+        <v>8531</v>
       </c>
       <c r="D11" t="n">
-        <v>1291</v>
+        <v>1128</v>
       </c>
       <c r="E11" t="n">
-        <v>2728</v>
+        <v>4221</v>
       </c>
       <c r="F11" t="n">
-        <v>38475</v>
+        <v>36112</v>
       </c>
       <c r="G11" t="n">
-        <v>916571</v>
+        <v>1007579</v>
       </c>
       <c r="H11" t="n">
-        <v>20291</v>
+        <v>34354</v>
       </c>
       <c r="I11" t="n">
-        <v>2809</v>
+        <v>2869</v>
       </c>
       <c r="J11" t="n">
-        <v>882153</v>
+        <v>954390</v>
       </c>
       <c r="K11" t="n">
-        <v>3020</v>
+        <v>3071</v>
       </c>
       <c r="L11" t="n">
-        <v>632770</v>
+        <v>616094</v>
       </c>
       <c r="M11" t="n">
-        <v>3536</v>
+        <v>3403</v>
       </c>
       <c r="N11" t="n">
-        <v>27308</v>
+        <v>35013</v>
       </c>
       <c r="O11" t="n">
-        <v>13364</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1152</v>
-      </c>
+        <v>19963</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>182448</v>
+        <v>266659</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11835</v>
+        <v>14492</v>
       </c>
       <c r="C12" t="n">
-        <v>3956</v>
+        <v>9021</v>
       </c>
       <c r="D12" t="n">
-        <v>1274</v>
+        <v>1048</v>
       </c>
       <c r="E12" t="n">
-        <v>2778</v>
+        <v>4426</v>
       </c>
       <c r="F12" t="n">
-        <v>37836</v>
+        <v>35762</v>
       </c>
       <c r="G12" t="n">
-        <v>936927</v>
+        <v>1022922</v>
       </c>
       <c r="H12" t="n">
-        <v>20918</v>
+        <v>35394</v>
       </c>
       <c r="I12" t="n">
-        <v>2992</v>
+        <v>2934</v>
       </c>
       <c r="J12" t="n">
-        <v>901709</v>
+        <v>970036</v>
       </c>
       <c r="K12" t="n">
-        <v>3025</v>
+        <v>3052</v>
       </c>
       <c r="L12" t="n">
-        <v>648424</v>
+        <v>608828</v>
       </c>
       <c r="M12" t="n">
-        <v>3513</v>
+        <v>3384</v>
       </c>
       <c r="N12" t="n">
-        <v>32739</v>
+        <v>35365</v>
       </c>
       <c r="O12" t="n">
-        <v>13681</v>
-      </c>
-      <c r="P12" t="n">
-        <v>929</v>
-      </c>
+        <v>20133</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>181781</v>
+        <v>289542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11926</v>
+        <v>13276</v>
       </c>
       <c r="C13" t="n">
-        <v>4283</v>
+        <v>9699</v>
       </c>
       <c r="D13" t="n">
-        <v>1294</v>
+        <v>932</v>
       </c>
       <c r="E13" t="n">
-        <v>2831</v>
+        <v>4630</v>
       </c>
       <c r="F13" t="n">
-        <v>37295</v>
+        <v>34943</v>
       </c>
       <c r="G13" t="n">
-        <v>954389</v>
+        <v>1030935</v>
       </c>
       <c r="H13" t="n">
-        <v>21979</v>
+        <v>36570</v>
       </c>
       <c r="I13" t="n">
-        <v>3022</v>
+        <v>3010</v>
       </c>
       <c r="J13" t="n">
-        <v>918003</v>
+        <v>977790</v>
       </c>
       <c r="K13" t="n">
-        <v>3036</v>
+        <v>3032</v>
       </c>
       <c r="L13" t="n">
-        <v>662894</v>
+        <v>599292</v>
       </c>
       <c r="M13" t="n">
-        <v>3484</v>
+        <v>3376</v>
       </c>
       <c r="N13" t="n">
-        <v>32860</v>
+        <v>36160</v>
       </c>
       <c r="O13" t="n">
-        <v>14328</v>
-      </c>
-      <c r="P13" t="n">
-        <v>667</v>
-      </c>
+        <v>20307</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>184287</v>
+        <v>306883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12083</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4665</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1289</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2889</v>
-      </c>
+        <v>13000</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>37097</v>
+        <v>34000</v>
       </c>
       <c r="G14" t="n">
-        <v>950297</v>
+        <v>1033000</v>
       </c>
       <c r="H14" t="n">
-        <v>23170</v>
+        <v>37000</v>
       </c>
       <c r="I14" t="n">
-        <v>3088</v>
+        <v>2796</v>
       </c>
       <c r="J14" t="n">
-        <v>912620</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3044</v>
-      </c>
+        <v>980000</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>653419</v>
+        <v>588000</v>
       </c>
       <c r="M14" t="n">
-        <v>3490</v>
+        <v>3385</v>
       </c>
       <c r="N14" t="n">
-        <v>33562</v>
-      </c>
-      <c r="O14" t="n">
-        <v>15021</v>
-      </c>
-      <c r="P14" t="n">
-        <v>610</v>
-      </c>
+        <v>36000</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>187932</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>31155</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5127</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1271</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3015</v>
-      </c>
-      <c r="F15" t="n">
-        <v>37015</v>
-      </c>
-      <c r="G15" t="n">
-        <v>974398</v>
-      </c>
-      <c r="H15" t="n">
-        <v>24709</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2967</v>
-      </c>
-      <c r="J15" t="n">
-        <v>915368</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3144</v>
-      </c>
-      <c r="L15" t="n">
-        <v>648619</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3516</v>
-      </c>
-      <c r="N15" t="n">
-        <v>33965</v>
-      </c>
-      <c r="O15" t="n">
-        <v>15887</v>
-      </c>
-      <c r="P15" t="n">
-        <v>593</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>195176</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>35029</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5478</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1242</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3115</v>
-      </c>
-      <c r="F16" t="n">
-        <v>36902</v>
-      </c>
-      <c r="G16" t="n">
-        <v>981432</v>
-      </c>
-      <c r="H16" t="n">
-        <v>25860</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2975</v>
-      </c>
-      <c r="J16" t="n">
-        <v>917335</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3098</v>
-      </c>
-      <c r="L16" t="n">
-        <v>645470</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3490</v>
-      </c>
-      <c r="N16" t="n">
-        <v>34238</v>
-      </c>
-      <c r="O16" t="n">
-        <v>16524</v>
-      </c>
-      <c r="P16" t="n">
-        <v>595</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>200130</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>31927</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6023</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1234</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3267</v>
-      </c>
-      <c r="F17" t="n">
-        <v>36817</v>
-      </c>
-      <c r="G17" t="n">
-        <v>983528</v>
-      </c>
-      <c r="H17" t="n">
-        <v>27587</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2986</v>
-      </c>
-      <c r="J17" t="n">
-        <v>920770</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3078</v>
-      </c>
-      <c r="L17" t="n">
-        <v>640536</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3478</v>
-      </c>
-      <c r="N17" t="n">
-        <v>34321</v>
-      </c>
-      <c r="O17" t="n">
-        <v>17430</v>
-      </c>
-      <c r="P17" t="n">
-        <v>524</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>208572</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>24866</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6642</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1213</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3462</v>
-      </c>
-      <c r="F18" t="n">
-        <v>36795</v>
-      </c>
-      <c r="G18" t="n">
-        <v>983394</v>
-      </c>
-      <c r="H18" t="n">
-        <v>29140</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2986</v>
-      </c>
-      <c r="J18" t="n">
-        <v>926518</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3063</v>
-      </c>
-      <c r="L18" t="n">
-        <v>638763</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3481</v>
-      </c>
-      <c r="N18" t="n">
-        <v>34327</v>
-      </c>
-      <c r="O18" t="n">
-        <v>18020</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>216187</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>19896</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7220</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3695</v>
-      </c>
-      <c r="F19" t="n">
-        <v>36551</v>
-      </c>
-      <c r="G19" t="n">
-        <v>986649</v>
-      </c>
-      <c r="H19" t="n">
-        <v>31056</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J19" t="n">
-        <v>933024</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3077</v>
-      </c>
-      <c r="L19" t="n">
-        <v>632057</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3456</v>
-      </c>
-      <c r="N19" t="n">
-        <v>34652</v>
-      </c>
-      <c r="O19" t="n">
-        <v>18921</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>229221</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>18033</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7900</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1161</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3977</v>
-      </c>
-      <c r="F20" t="n">
-        <v>36461</v>
-      </c>
-      <c r="G20" t="n">
-        <v>997433</v>
-      </c>
-      <c r="H20" t="n">
-        <v>33009</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2949</v>
-      </c>
-      <c r="J20" t="n">
-        <v>943639</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3080</v>
-      </c>
-      <c r="L20" t="n">
-        <v>622001</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3443</v>
-      </c>
-      <c r="N20" t="n">
-        <v>34997</v>
-      </c>
-      <c r="O20" t="n">
-        <v>19693</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>249654</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>15958</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8531</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1128</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4221</v>
-      </c>
-      <c r="F21" t="n">
-        <v>36112</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1007579</v>
-      </c>
-      <c r="H21" t="n">
-        <v>34354</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2869</v>
-      </c>
-      <c r="J21" t="n">
-        <v>954390</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3071</v>
-      </c>
-      <c r="L21" t="n">
-        <v>616094</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3403</v>
-      </c>
-      <c r="N21" t="n">
-        <v>35013</v>
-      </c>
-      <c r="O21" t="n">
-        <v>19963</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>266659</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>14492</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9021</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1048</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4426</v>
-      </c>
-      <c r="F22" t="n">
-        <v>35762</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1022922</v>
-      </c>
-      <c r="H22" t="n">
-        <v>35394</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2934</v>
-      </c>
-      <c r="J22" t="n">
-        <v>970036</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3052</v>
-      </c>
-      <c r="L22" t="n">
-        <v>608828</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3384</v>
-      </c>
-      <c r="N22" t="n">
-        <v>35365</v>
-      </c>
-      <c r="O22" t="n">
-        <v>20133</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>289542</v>
+        <v>321000</v>
       </c>
     </row>
   </sheetData>
